--- a/eval_results/AllResults_NIND_10Runs_PerSample.xlsx
+++ b/eval_results/AllResults_NIND_10Runs_PerSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sav/GolandProjects/cellCNN/cellCNNClear/data/cellCNN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sav/GolandProjects/cellCNN/eval_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6632972E-B662-B744-AE7D-6D7216211603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C712D5DC-AACE-D644-AC58-035E483C3D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16120" xr2:uid="{BBBA523D-1BFD-B348-9EBC-25C28114B3DD}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16060" xr2:uid="{BBBA523D-1BFD-B348-9EBC-25C28114B3DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,19 +64,19 @@
     <t>Local_2</t>
   </si>
   <si>
-    <t>PEGASUS (N=2)</t>
-  </si>
-  <si>
     <t>Local_4</t>
-  </si>
-  <si>
-    <t>PEGASUS (N=4)</t>
   </si>
   <si>
     <t>Local_6</t>
   </si>
   <si>
-    <t>PEGASUS (N=6)</t>
+    <t>PriCell (N=2)</t>
+  </si>
+  <si>
+    <t>PriCell (N=4)</t>
+  </si>
+  <si>
+    <t>PriCell (N=6)</t>
   </si>
 </sst>
 </file>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1612BFB5-2B11-E44C-B39A-D9E760E82DEB}">
   <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82:E101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B42">
         <v>0.75</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B43">
         <v>0.5</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B44">
         <v>0.67</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B45">
         <v>0.75</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B46">
         <v>0.67</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B47">
         <v>0.81</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <v>0.75</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B49">
         <v>0.83</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B50">
         <v>0.67</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B51">
         <v>0.83</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B52">
         <v>0.67</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B53">
         <v>0.56000000000000005</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B54">
         <v>0.68</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B55">
         <v>0.8</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B56">
         <v>0.67</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B57">
         <v>0.92</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B58">
         <v>0.75</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B59">
         <v>0.8</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B60">
         <v>0.61</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B61">
         <v>0.79</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62">
         <v>0.66666667000000002</v>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B63">
         <v>0.54166667000000002</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B64">
         <v>0.5625</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B65">
         <v>0.5</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66">
         <v>0.64583332999999998</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B67">
         <v>0.54166667000000002</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B68">
         <v>0.52083332999999998</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B69">
         <v>0.45833332999999998</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B70">
         <v>0.5625</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B71">
         <v>0.60416667000000002</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B72">
         <v>0.66145832999999998</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B73">
         <v>0.59375</v>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B74">
         <v>0.55729167000000002</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75">
         <v>0.51302082999999998</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76">
         <v>0.6328125</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B77">
         <v>0.53645832999999998</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B78">
         <v>0.5234375</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B79">
         <v>0.5078125</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B80">
         <v>0.55729167000000002</v>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B81">
         <v>0.57552082999999998</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B82">
         <v>0.83</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B83">
         <v>0.75</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B84">
         <v>0.75</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B85">
         <v>0.57999999999999996</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B86">
         <v>0.67</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B87">
         <v>0.81</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B88">
         <v>0.67</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B89">
         <v>0.57999999999999996</v>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B90">
         <v>0.75</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B91">
         <v>0.67</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B92">
         <v>0.83</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B93">
         <v>0.75</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B94">
         <v>0.75</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B95">
         <v>0.57999999999999996</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B96">
         <v>0.67</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B97">
         <v>0.8</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B98">
         <v>0.69</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B99">
         <v>0.65</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B100">
         <v>0.75</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B101">
         <v>0.68</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B102">
         <v>0.48611111000000001</v>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B103">
         <v>0.47222222000000003</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B104">
         <v>0.52777777999999997</v>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B105">
         <v>0.47222222000000003</v>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B106">
         <v>0.48611111000000001</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B107">
         <v>0.625</v>
@@ -2659,7 +2659,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B108">
         <v>0.51388889000000004</v>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B109">
         <v>0.63888889000000004</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B110">
         <v>0.61111110999999996</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B111">
         <v>0.58333332999999998</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B112">
         <v>0.48611111000000001</v>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B113">
         <v>0.49479167000000002</v>
@@ -2785,7 +2785,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B114">
         <v>0.55381944000000005</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B115">
         <v>0.46527777999999997</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B116">
         <v>0.50868055999999995</v>
@@ -2848,7 +2848,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B117">
         <v>0.61631944000000005</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B118">
         <v>0.50694444000000005</v>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B119">
         <v>0.60763889000000004</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B120">
         <v>0.60416667000000002</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B121">
         <v>0.58333332999999998</v>
